--- a/Форма заявления.xlsx
+++ b/Форма заявления.xlsx
@@ -13,19 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="Пол">Лист2!$A$1:$A$2</definedName>
-    <definedName name="Раздел">Лист2!$B$1:$B$2</definedName>
-    <definedName name="Разряд">Лист2!$C$1:$C$7</definedName>
-  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Информация о турнире</t>
   </si>
@@ -75,12 +69,6 @@
     <t>Пол</t>
   </si>
   <si>
-    <t>МС</t>
-  </si>
-  <si>
-    <t>Ж</t>
-  </si>
-  <si>
     <t>Псковский чемпионат</t>
   </si>
   <si>
@@ -91,33 +79,6 @@
   </si>
   <si>
     <t>Раздел</t>
-  </si>
-  <si>
-    <t>М</t>
-  </si>
-  <si>
-    <t>Low Kick</t>
-  </si>
-  <si>
-    <t>Point Fighting</t>
-  </si>
-  <si>
-    <t>1 р</t>
-  </si>
-  <si>
-    <t>2 р</t>
-  </si>
-  <si>
-    <t>3 р</t>
-  </si>
-  <si>
-    <t>ЗМС</t>
-  </si>
-  <si>
-    <t>КМС</t>
-  </si>
-  <si>
-    <t>МСМК</t>
   </si>
 </sst>
 </file>
@@ -142,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -305,11 +266,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -321,8 +293,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -637,7 +612,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:K86"/>
+  <dimension ref="A1:L86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
@@ -648,7 +623,7 @@
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
@@ -659,29 +634,29 @@
     <col min="12" max="12" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="15"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -690,7 +665,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -699,58 +674,58 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="11" t="s">
+      <c r="G13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -763,11 +738,11 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="12"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -776,7 +751,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -788,6 +763,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
+      <c r="L16" s="13"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
@@ -1705,83 +1681,7 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A12:K12"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14:F86">
-      <formula1>Пол</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14:G86">
-      <formula1>Раздел</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J14:J86">
-      <formula1>Разряд</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>